--- a/TareasPendientes.xlsx
+++ b/TareasPendientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YEFRI\2021\SEMESTRE VI\SCRIPTING\ejercicio1\ArcangelesDeLunaGil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git\ArcangelesDeLunaGil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DC94E5-A632-4289-B812-E6F63B90DF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7641F-1A8F-49E6-A87C-1A52AA0304BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36928E3E-4EB3-4938-84A1-89CD749E3A12}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tareas Pendientes</t>
   </si>
@@ -58,6 +54,24 @@
   </si>
   <si>
     <t xml:space="preserve">Árcangeles </t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Jales</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>paxito</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>Yefri san</t>
   </si>
 </sst>
 </file>
@@ -73,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517B6270-239A-4E19-9FBE-EB887A6BE1EE}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,23 +467,43 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
